--- a/data/annotated/Labels - https___doi.org_10.1093_ehr_cew052.xlsx
+++ b/data/annotated/Labels - https___doi.org_10.1093_ehr_cew052.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Desktop/Data Science/3. Semester 2023 WS/Data Analysis Project/A-blessing-or-a-curse-Analysis-of-scholarly-citations/data/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE016125-DCF6-BF46-B842-F7C9A67B62D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C039A24-9F5B-A34C-AFB7-E8374657A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="259">
   <si>
-    <t xml:space="preserve">Footnote </t>
-  </si>
-  <si>
     <t>Subset</t>
   </si>
   <si>
@@ -797,6 +794,9 @@
   </si>
   <si>
     <t>For Richer, For Poorer’</t>
+  </si>
+  <si>
+    <t>Footnote</t>
   </si>
 </sst>
 </file>
@@ -1127,8 +1127,8 @@
   </sheetPr>
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="J188" sqref="J188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1139,39 +1139,39 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1179,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1196,16 +1196,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1213,16 +1213,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1230,16 +1230,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1247,16 +1247,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1264,16 +1264,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1281,10 +1281,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1315,16 +1315,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1332,16 +1332,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1366,16 +1366,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1383,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1400,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1417,13 +1417,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1431,16 +1431,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1448,16 +1448,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1465,16 +1465,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1482,16 +1482,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1499,16 +1499,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1516,16 +1516,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1533,16 +1533,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1550,16 +1550,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -1567,16 +1567,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="15">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -1584,16 +1584,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -1601,16 +1601,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1618,16 +1618,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -1635,16 +1635,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="1">
         <v>23</v>
       </c>
@@ -1652,16 +1652,16 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="1">
         <v>23</v>
       </c>
@@ -1669,16 +1669,16 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -1686,16 +1686,16 @@
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="1">
         <v>23</v>
       </c>
@@ -1703,16 +1703,16 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="15">
       <c r="A35" s="1">
         <v>24</v>
       </c>
@@ -1720,16 +1720,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="15">
       <c r="A36" s="1">
         <v>24</v>
       </c>
@@ -1737,16 +1737,16 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="1">
         <v>25</v>
       </c>
@@ -1754,16 +1754,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="15">
       <c r="A38" s="1">
         <v>26</v>
       </c>
@@ -1771,16 +1771,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="15">
       <c r="A39" s="1">
         <v>27</v>
       </c>
@@ -1788,16 +1788,16 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="1">
         <v>27</v>
       </c>
@@ -1805,16 +1805,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="1">
         <v>28</v>
       </c>
@@ -1822,16 +1822,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="1">
         <v>29</v>
       </c>
@@ -1839,16 +1839,16 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="1">
         <v>29</v>
       </c>
@@ -1856,16 +1856,16 @@
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="15">
       <c r="A44" s="1">
         <v>30</v>
       </c>
@@ -1873,16 +1873,16 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="15">
       <c r="A45" s="1">
         <v>31</v>
       </c>
@@ -1890,16 +1890,16 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="15">
       <c r="A46" s="1">
         <v>32</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="15">
       <c r="A47" s="1">
         <v>33</v>
       </c>
@@ -1924,16 +1924,16 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="1">
         <v>34</v>
       </c>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="1">
         <v>34</v>
       </c>
@@ -1958,16 +1958,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="15">
       <c r="A50" s="1">
         <v>35</v>
       </c>
@@ -1975,16 +1975,16 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E50" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="15">
       <c r="A51" s="1">
         <v>36</v>
       </c>
@@ -1992,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="15">
       <c r="A52" s="1">
         <v>37</v>
       </c>
@@ -2009,16 +2009,16 @@
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="15">
       <c r="A53" s="1">
         <v>38</v>
       </c>
@@ -2026,16 +2026,16 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="15">
       <c r="A54" s="1">
         <v>39</v>
       </c>
@@ -2043,16 +2043,16 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="15">
       <c r="A55" s="1">
         <v>40</v>
       </c>
@@ -2060,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -2179,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -2264,10 +2264,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -2434,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -2516,10 +2516,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -2598,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -2785,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -2802,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -2819,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -2853,10 +2853,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -2887,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -2904,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -2938,10 +2938,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -2972,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E114" s="1">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -3174,10 +3174,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -3208,10 +3208,10 @@
         <v>2</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
@@ -3225,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E124" s="1">
         <v>0</v>
@@ -3242,10 +3242,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E125" s="1">
         <v>0</v>
@@ -3259,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -3276,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -3327,10 +3327,10 @@
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E130" s="1">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -3378,10 +3378,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="E133" s="1">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E134" s="1">
         <v>0</v>
@@ -3412,10 +3412,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
@@ -3446,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E137" s="1">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E139" s="1">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E141" s="1">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E142" s="1">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>2</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E143" s="1">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>2</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E146" s="1">
         <v>0</v>
@@ -3616,10 +3616,10 @@
         <v>1</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="E147" s="1">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E148" s="1">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="E149" s="1">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E150" s="1">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E151" s="1">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -3718,10 +3718,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D153" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -3735,10 +3735,10 @@
         <v>3</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
@@ -3752,10 +3752,10 @@
         <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E155" s="1">
         <v>0</v>
@@ -3769,10 +3769,10 @@
         <v>1</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E156" s="1">
         <v>0</v>
@@ -3786,10 +3786,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E157" s="1">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E158" s="1">
         <v>0</v>
@@ -3820,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="E159" s="1">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E160" s="1">
         <v>0</v>
@@ -3854,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E161" s="1">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E162" s="1">
         <v>0</v>
@@ -3888,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="E163" s="1">
         <v>0</v>
@@ -3905,10 +3905,10 @@
         <v>2</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E164" s="1">
         <v>0</v>
@@ -3922,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E165" s="1">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E166" s="1">
         <v>0</v>
@@ -3956,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E167" s="1">
         <v>0</v>
@@ -3973,10 +3973,10 @@
         <v>1</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E168" s="1">
         <v>0</v>
@@ -3990,10 +3990,10 @@
         <v>1</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E169" s="1">
         <v>0</v>
@@ -4007,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E170" s="1">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>1</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E171" s="1">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>2</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E172" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>1</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E173" s="1">
         <v>0</v>
@@ -4075,10 +4075,10 @@
         <v>2</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E174" s="1">
         <v>0</v>
@@ -4092,10 +4092,10 @@
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -4109,10 +4109,10 @@
         <v>2</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -4126,10 +4126,10 @@
         <v>1</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>1</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -4160,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -4177,10 +4177,10 @@
         <v>2</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -4194,10 +4194,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -4211,10 +4211,10 @@
         <v>2</v>
       </c>
       <c r="C182" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -4228,10 +4228,10 @@
         <v>3</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -4245,10 +4245,10 @@
         <v>1</v>
       </c>
       <c r="C184" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E184" s="1">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E185" s="1">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>1</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="E186" s="1">
         <v>0</v>
@@ -4293,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E187" s="1">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E188" s="1">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="E189" s="1">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E190" s="1">
         <v>0</v>
@@ -4361,10 +4361,10 @@
         <v>1</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="E191" s="1">
         <v>0</v>
@@ -4378,10 +4378,10 @@
         <v>2</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E192" s="1">
         <v>0</v>
@@ -4395,10 +4395,10 @@
         <v>3</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E193" s="1">
         <v>0</v>
@@ -4412,10 +4412,10 @@
         <v>1</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E194" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E195" s="1">
         <v>0</v>
